--- a/tl/S10027.MES.BIN.xlsx
+++ b/tl/S10027.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AAADA-BCEC-4495-B7BF-3FC8C77A6CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A40B5C-B914-40FE-A399-0140734BA3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="7020" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="16215" windowWidth="55245" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10027.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>There's a huge Christmas tree created for this day, this night.</t>
+    <t>There's a huge Christmas tree created for this day and night.</t>
   </si>
   <si>
     <t>The huge Christmas tree created for this day and this night.</t>
@@ -432,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -847,11 +847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -859,7 +857,7 @@
     <col min="5" max="10" width="115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -923,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -955,7 +953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -987,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +2009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -2171,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -2395,7 +2393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -2619,7 +2617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
